--- a/Datos/Keratinases/Keratinolytic Data.xlsx
+++ b/Datos/Keratinases/Keratinolytic Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saed9\Documents\GitHub\Tarea_DBT845\Datos\Keratinases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4142B96-AB50-4AEA-909E-27DD8FD43E85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C326E55-9F12-444A-9439-27F2CCB224B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="682" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table S1" sheetId="16" r:id="rId1"/>
@@ -5937,11 +5937,32 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5952,44 +5973,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -5998,10 +5992,40 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6019,30 +6043,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6433,11 +6433,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8590B473-C5BE-4DAC-BCA2-AFA6057DE614}">
   <dimension ref="A1:AI79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13372,7 +13372,7 @@
   <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14886,38 +14886,38 @@
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="176" t="s">
+      <c r="A3" s="168" t="s">
         <v>265</v>
       </c>
-      <c r="B3" s="180"/>
-      <c r="C3" s="171" t="s">
+      <c r="B3" s="169"/>
+      <c r="C3" s="172" t="s">
         <v>174</v>
       </c>
-      <c r="D3" s="172"/>
-      <c r="E3" s="171" t="s">
+      <c r="D3" s="166"/>
+      <c r="E3" s="172" t="s">
         <v>175</v>
       </c>
-      <c r="F3" s="172"/>
-      <c r="G3" s="171" t="s">
+      <c r="F3" s="166"/>
+      <c r="G3" s="172" t="s">
         <v>176</v>
       </c>
-      <c r="H3" s="172"/>
-      <c r="I3" s="171" t="s">
+      <c r="H3" s="166"/>
+      <c r="I3" s="172" t="s">
         <v>177</v>
       </c>
-      <c r="J3" s="173"/>
-      <c r="K3" s="172" t="s">
+      <c r="J3" s="167"/>
+      <c r="K3" s="166" t="s">
         <v>616</v>
       </c>
-      <c r="L3" s="173"/>
-      <c r="M3" s="172" t="s">
+      <c r="L3" s="167"/>
+      <c r="M3" s="166" t="s">
         <v>179</v>
       </c>
-      <c r="N3" s="173"/>
+      <c r="N3" s="167"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="178"/>
-      <c r="B4" s="181"/>
+      <c r="A4" s="170"/>
+      <c r="B4" s="171"/>
       <c r="C4" s="65" t="s">
         <v>143</v>
       </c>
@@ -14956,10 +14956,10 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="174" t="s">
+      <c r="A5" s="173" t="s">
         <v>189</v>
       </c>
-      <c r="B5" s="175"/>
+      <c r="B5" s="174"/>
       <c r="C5" s="123">
         <v>61.25</v>
       </c>
@@ -14990,7 +14990,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="168" t="s">
+      <c r="A6" s="175" t="s">
         <v>621</v>
       </c>
       <c r="B6" s="15">
@@ -15034,7 +15034,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="168"/>
+      <c r="A7" s="175"/>
       <c r="B7" s="15">
         <v>10</v>
       </c>
@@ -15076,7 +15076,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="168"/>
+      <c r="A8" s="175"/>
       <c r="B8" s="15">
         <v>15</v>
       </c>
@@ -15118,7 +15118,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="169"/>
+      <c r="A9" s="176"/>
       <c r="B9" s="36">
         <v>20</v>
       </c>
@@ -15160,7 +15160,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="170" t="s">
+      <c r="A10" s="177" t="s">
         <v>622</v>
       </c>
       <c r="B10" s="37" t="s">
@@ -15204,7 +15204,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="168"/>
+      <c r="A11" s="175"/>
       <c r="B11" s="137">
         <v>5</v>
       </c>
@@ -15246,7 +15246,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="168"/>
+      <c r="A12" s="175"/>
       <c r="B12" s="38" t="s">
         <v>617</v>
       </c>
@@ -15288,7 +15288,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="169"/>
+      <c r="A13" s="176"/>
       <c r="B13" s="136">
         <v>10</v>
       </c>
@@ -15330,7 +15330,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="170" t="s">
+      <c r="A14" s="177" t="s">
         <v>619</v>
       </c>
       <c r="B14" s="37">
@@ -15374,7 +15374,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="168"/>
+      <c r="A15" s="175"/>
       <c r="B15" s="39">
         <v>20</v>
       </c>
@@ -15416,7 +15416,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="168"/>
+      <c r="A16" s="175"/>
       <c r="B16" s="39">
         <v>25</v>
       </c>
@@ -15458,7 +15458,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="168"/>
+      <c r="A17" s="175"/>
       <c r="B17" s="39">
         <v>30</v>
       </c>
@@ -15500,7 +15500,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="169"/>
+      <c r="A18" s="176"/>
       <c r="B18" s="40">
         <v>37</v>
       </c>
@@ -15570,37 +15570,37 @@
       <c r="N20" s="3"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="176" t="s">
+      <c r="A21" s="168" t="s">
         <v>266</v>
       </c>
-      <c r="B21" s="177"/>
-      <c r="C21" s="171" t="s">
+      <c r="B21" s="178"/>
+      <c r="C21" s="172" t="s">
         <v>174</v>
       </c>
-      <c r="D21" s="172"/>
-      <c r="E21" s="171" t="s">
+      <c r="D21" s="166"/>
+      <c r="E21" s="172" t="s">
         <v>175</v>
       </c>
-      <c r="F21" s="172"/>
-      <c r="G21" s="171" t="s">
+      <c r="F21" s="166"/>
+      <c r="G21" s="172" t="s">
         <v>176</v>
       </c>
-      <c r="H21" s="172"/>
-      <c r="I21" s="171" t="s">
+      <c r="H21" s="166"/>
+      <c r="I21" s="172" t="s">
         <v>177</v>
       </c>
-      <c r="J21" s="173"/>
-      <c r="K21" s="172" t="s">
+      <c r="J21" s="167"/>
+      <c r="K21" s="166" t="s">
         <v>178</v>
       </c>
-      <c r="L21" s="173"/>
-      <c r="M21" s="172" t="s">
+      <c r="L21" s="167"/>
+      <c r="M21" s="166" t="s">
         <v>179</v>
       </c>
-      <c r="N21" s="173"/>
+      <c r="N21" s="167"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="178"/>
+      <c r="A22" s="170"/>
       <c r="B22" s="179"/>
       <c r="C22" s="65" t="s">
         <v>143</v>
@@ -15640,10 +15640,10 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="166" t="s">
+      <c r="A23" s="180" t="s">
         <v>189</v>
       </c>
-      <c r="B23" s="167"/>
+      <c r="B23" s="181"/>
       <c r="C23" s="41">
         <v>60</v>
       </c>
@@ -15674,7 +15674,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="168" t="s">
+      <c r="A24" s="175" t="s">
         <v>621</v>
       </c>
       <c r="B24" s="15">
@@ -15718,7 +15718,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="168"/>
+      <c r="A25" s="175"/>
       <c r="B25" s="15">
         <v>10</v>
       </c>
@@ -15760,7 +15760,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="168"/>
+      <c r="A26" s="175"/>
       <c r="B26" s="15">
         <v>15</v>
       </c>
@@ -15802,7 +15802,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="169"/>
+      <c r="A27" s="176"/>
       <c r="B27" s="36">
         <v>20</v>
       </c>
@@ -15844,7 +15844,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="170" t="s">
+      <c r="A28" s="177" t="s">
         <v>622</v>
       </c>
       <c r="B28" s="37" t="s">
@@ -15888,7 +15888,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="168"/>
+      <c r="A29" s="175"/>
       <c r="B29" s="137">
         <v>5</v>
       </c>
@@ -15930,7 +15930,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="168"/>
+      <c r="A30" s="175"/>
       <c r="B30" s="38" t="s">
         <v>617</v>
       </c>
@@ -15972,7 +15972,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="169"/>
+      <c r="A31" s="176"/>
       <c r="B31" s="136">
         <v>10</v>
       </c>
@@ -16014,7 +16014,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="170" t="s">
+      <c r="A32" s="177" t="s">
         <v>620</v>
       </c>
       <c r="B32" s="37">
@@ -16058,7 +16058,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="168"/>
+      <c r="A33" s="175"/>
       <c r="B33" s="39">
         <v>20</v>
       </c>
@@ -16100,7 +16100,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="168"/>
+      <c r="A34" s="175"/>
       <c r="B34" s="39">
         <v>25</v>
       </c>
@@ -16142,7 +16142,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="168"/>
+      <c r="A35" s="175"/>
       <c r="B35" s="39">
         <v>30</v>
       </c>
@@ -16184,7 +16184,7 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="169"/>
+      <c r="A36" s="176"/>
       <c r="B36" s="40">
         <v>37</v>
       </c>
@@ -16232,13 +16232,11 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="E21:F21"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="K21:L21"/>
@@ -16249,11 +16247,13 @@
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A21:B22"/>
     <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16263,7 +16263,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC45AFA-12E3-4D7F-9891-4A09AB2ED1DB}">
   <dimension ref="A1:U56"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -16283,119 +16283,119 @@
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="196" t="s">
+      <c r="A4" s="190" t="s">
         <v>180</v>
       </c>
-      <c r="B4" s="197"/>
-      <c r="C4" s="197"/>
-      <c r="D4" s="197"/>
-      <c r="E4" s="197"/>
-      <c r="F4" s="197"/>
-      <c r="G4" s="197"/>
-      <c r="H4" s="197"/>
-      <c r="I4" s="197"/>
-      <c r="J4" s="197"/>
-      <c r="K4" s="198"/>
-      <c r="L4" s="199" t="s">
+      <c r="B4" s="191"/>
+      <c r="C4" s="191"/>
+      <c r="D4" s="191"/>
+      <c r="E4" s="191"/>
+      <c r="F4" s="191"/>
+      <c r="G4" s="191"/>
+      <c r="H4" s="191"/>
+      <c r="I4" s="191"/>
+      <c r="J4" s="191"/>
+      <c r="K4" s="192"/>
+      <c r="L4" s="193" t="s">
         <v>162</v>
       </c>
-      <c r="M4" s="200"/>
-      <c r="N4" s="200"/>
-      <c r="O4" s="200"/>
-      <c r="P4" s="200"/>
-      <c r="Q4" s="200"/>
-      <c r="R4" s="200"/>
-      <c r="S4" s="200"/>
-      <c r="T4" s="200"/>
-      <c r="U4" s="201"/>
+      <c r="M4" s="194"/>
+      <c r="N4" s="194"/>
+      <c r="O4" s="194"/>
+      <c r="P4" s="194"/>
+      <c r="Q4" s="194"/>
+      <c r="R4" s="194"/>
+      <c r="S4" s="194"/>
+      <c r="T4" s="194"/>
+      <c r="U4" s="195"/>
     </row>
     <row r="5" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="194" t="s">
+      <c r="A5" s="184" t="s">
         <v>181</v>
       </c>
       <c r="B5" s="186" t="s">
         <v>182</v>
       </c>
-      <c r="C5" s="182" t="s">
+      <c r="C5" s="188" t="s">
         <v>183</v>
       </c>
-      <c r="D5" s="184" t="s">
+      <c r="D5" s="182" t="s">
         <v>184</v>
       </c>
       <c r="E5" s="186" t="s">
         <v>143</v>
       </c>
-      <c r="F5" s="184" t="s">
+      <c r="F5" s="182" t="s">
         <v>185</v>
       </c>
       <c r="G5" s="186" t="s">
         <v>186</v>
       </c>
-      <c r="H5" s="182" t="s">
+      <c r="H5" s="188" t="s">
         <v>187</v>
       </c>
-      <c r="I5" s="184" t="s">
+      <c r="I5" s="182" t="s">
         <v>188</v>
       </c>
       <c r="J5" s="186" t="s">
         <v>143</v>
       </c>
-      <c r="K5" s="184" t="s">
+      <c r="K5" s="182" t="s">
         <v>185</v>
       </c>
       <c r="L5" s="186" t="s">
         <v>182</v>
       </c>
-      <c r="M5" s="182" t="s">
+      <c r="M5" s="188" t="s">
         <v>183</v>
       </c>
-      <c r="N5" s="184" t="s">
+      <c r="N5" s="182" t="s">
         <v>184</v>
       </c>
       <c r="O5" s="186" t="s">
         <v>143</v>
       </c>
-      <c r="P5" s="184" t="s">
+      <c r="P5" s="182" t="s">
         <v>185</v>
       </c>
       <c r="Q5" s="186" t="s">
         <v>186</v>
       </c>
-      <c r="R5" s="182" t="s">
+      <c r="R5" s="188" t="s">
         <v>187</v>
       </c>
-      <c r="S5" s="184" t="s">
+      <c r="S5" s="182" t="s">
         <v>188</v>
       </c>
-      <c r="T5" s="182" t="s">
+      <c r="T5" s="188" t="s">
         <v>143</v>
       </c>
-      <c r="U5" s="184" t="s">
+      <c r="U5" s="182" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="195"/>
+      <c r="A6" s="185"/>
       <c r="B6" s="187"/>
-      <c r="C6" s="183"/>
-      <c r="D6" s="185"/>
+      <c r="C6" s="189"/>
+      <c r="D6" s="183"/>
       <c r="E6" s="187"/>
-      <c r="F6" s="185"/>
+      <c r="F6" s="183"/>
       <c r="G6" s="187"/>
-      <c r="H6" s="183"/>
-      <c r="I6" s="185"/>
+      <c r="H6" s="189"/>
+      <c r="I6" s="183"/>
       <c r="J6" s="187"/>
-      <c r="K6" s="185"/>
+      <c r="K6" s="183"/>
       <c r="L6" s="187"/>
-      <c r="M6" s="183"/>
-      <c r="N6" s="185"/>
+      <c r="M6" s="189"/>
+      <c r="N6" s="183"/>
       <c r="O6" s="187"/>
-      <c r="P6" s="185"/>
+      <c r="P6" s="183"/>
       <c r="Q6" s="187"/>
-      <c r="R6" s="183"/>
-      <c r="S6" s="185"/>
-      <c r="T6" s="183"/>
-      <c r="U6" s="185"/>
+      <c r="R6" s="189"/>
+      <c r="S6" s="183"/>
+      <c r="T6" s="189"/>
+      <c r="U6" s="183"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="21">
@@ -16988,119 +16988,119 @@
       </c>
     </row>
     <row r="18" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="188" t="s">
+      <c r="A18" s="196" t="s">
         <v>180</v>
       </c>
-      <c r="B18" s="189"/>
-      <c r="C18" s="189"/>
-      <c r="D18" s="189"/>
-      <c r="E18" s="189"/>
-      <c r="F18" s="189"/>
-      <c r="G18" s="189"/>
-      <c r="H18" s="189"/>
-      <c r="I18" s="189"/>
-      <c r="J18" s="189"/>
-      <c r="K18" s="190"/>
-      <c r="L18" s="191" t="s">
+      <c r="B18" s="197"/>
+      <c r="C18" s="197"/>
+      <c r="D18" s="197"/>
+      <c r="E18" s="197"/>
+      <c r="F18" s="197"/>
+      <c r="G18" s="197"/>
+      <c r="H18" s="197"/>
+      <c r="I18" s="197"/>
+      <c r="J18" s="197"/>
+      <c r="K18" s="198"/>
+      <c r="L18" s="199" t="s">
         <v>162</v>
       </c>
-      <c r="M18" s="192"/>
-      <c r="N18" s="192"/>
-      <c r="O18" s="192"/>
-      <c r="P18" s="192"/>
-      <c r="Q18" s="192"/>
-      <c r="R18" s="192"/>
-      <c r="S18" s="192"/>
-      <c r="T18" s="192"/>
-      <c r="U18" s="193"/>
+      <c r="M18" s="200"/>
+      <c r="N18" s="200"/>
+      <c r="O18" s="200"/>
+      <c r="P18" s="200"/>
+      <c r="Q18" s="200"/>
+      <c r="R18" s="200"/>
+      <c r="S18" s="200"/>
+      <c r="T18" s="200"/>
+      <c r="U18" s="201"/>
     </row>
     <row r="19" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="194" t="s">
+      <c r="A19" s="184" t="s">
         <v>623</v>
       </c>
       <c r="B19" s="186" t="s">
         <v>182</v>
       </c>
-      <c r="C19" s="182" t="s">
+      <c r="C19" s="188" t="s">
         <v>183</v>
       </c>
-      <c r="D19" s="184" t="s">
+      <c r="D19" s="182" t="s">
         <v>184</v>
       </c>
       <c r="E19" s="186" t="s">
         <v>143</v>
       </c>
-      <c r="F19" s="184" t="s">
+      <c r="F19" s="182" t="s">
         <v>185</v>
       </c>
       <c r="G19" s="186" t="s">
         <v>186</v>
       </c>
-      <c r="H19" s="182" t="s">
+      <c r="H19" s="188" t="s">
         <v>187</v>
       </c>
-      <c r="I19" s="184" t="s">
+      <c r="I19" s="182" t="s">
         <v>188</v>
       </c>
       <c r="J19" s="186" t="s">
         <v>143</v>
       </c>
-      <c r="K19" s="184" t="s">
+      <c r="K19" s="182" t="s">
         <v>185</v>
       </c>
       <c r="L19" s="186" t="s">
         <v>182</v>
       </c>
-      <c r="M19" s="182" t="s">
+      <c r="M19" s="188" t="s">
         <v>183</v>
       </c>
-      <c r="N19" s="184" t="s">
+      <c r="N19" s="182" t="s">
         <v>184</v>
       </c>
       <c r="O19" s="186" t="s">
         <v>143</v>
       </c>
-      <c r="P19" s="184" t="s">
+      <c r="P19" s="182" t="s">
         <v>185</v>
       </c>
       <c r="Q19" s="186" t="s">
         <v>186</v>
       </c>
-      <c r="R19" s="182" t="s">
+      <c r="R19" s="188" t="s">
         <v>187</v>
       </c>
-      <c r="S19" s="184" t="s">
+      <c r="S19" s="182" t="s">
         <v>188</v>
       </c>
-      <c r="T19" s="182" t="s">
+      <c r="T19" s="188" t="s">
         <v>143</v>
       </c>
-      <c r="U19" s="184" t="s">
+      <c r="U19" s="182" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="195"/>
+      <c r="A20" s="185"/>
       <c r="B20" s="187"/>
-      <c r="C20" s="183"/>
-      <c r="D20" s="185"/>
+      <c r="C20" s="189"/>
+      <c r="D20" s="183"/>
       <c r="E20" s="187"/>
-      <c r="F20" s="185"/>
+      <c r="F20" s="183"/>
       <c r="G20" s="187"/>
-      <c r="H20" s="183"/>
-      <c r="I20" s="185"/>
+      <c r="H20" s="189"/>
+      <c r="I20" s="183"/>
       <c r="J20" s="187"/>
-      <c r="K20" s="185"/>
+      <c r="K20" s="183"/>
       <c r="L20" s="187"/>
-      <c r="M20" s="183"/>
-      <c r="N20" s="185"/>
+      <c r="M20" s="189"/>
+      <c r="N20" s="183"/>
       <c r="O20" s="187"/>
-      <c r="P20" s="185"/>
+      <c r="P20" s="183"/>
       <c r="Q20" s="187"/>
-      <c r="R20" s="183"/>
-      <c r="S20" s="185"/>
-      <c r="T20" s="183"/>
-      <c r="U20" s="185"/>
+      <c r="R20" s="189"/>
+      <c r="S20" s="183"/>
+      <c r="T20" s="189"/>
+      <c r="U20" s="183"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="26">
@@ -17628,119 +17628,119 @@
       </c>
     </row>
     <row r="32" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="188" t="s">
+      <c r="A32" s="196" t="s">
         <v>180</v>
       </c>
-      <c r="B32" s="189"/>
-      <c r="C32" s="189"/>
-      <c r="D32" s="189"/>
-      <c r="E32" s="189"/>
-      <c r="F32" s="189"/>
-      <c r="G32" s="189"/>
-      <c r="H32" s="189"/>
-      <c r="I32" s="189"/>
-      <c r="J32" s="189"/>
-      <c r="K32" s="190"/>
-      <c r="L32" s="191" t="s">
+      <c r="B32" s="197"/>
+      <c r="C32" s="197"/>
+      <c r="D32" s="197"/>
+      <c r="E32" s="197"/>
+      <c r="F32" s="197"/>
+      <c r="G32" s="197"/>
+      <c r="H32" s="197"/>
+      <c r="I32" s="197"/>
+      <c r="J32" s="197"/>
+      <c r="K32" s="198"/>
+      <c r="L32" s="199" t="s">
         <v>162</v>
       </c>
-      <c r="M32" s="192"/>
-      <c r="N32" s="192"/>
-      <c r="O32" s="192"/>
-      <c r="P32" s="192"/>
-      <c r="Q32" s="192"/>
-      <c r="R32" s="192"/>
-      <c r="S32" s="192"/>
-      <c r="T32" s="192"/>
-      <c r="U32" s="193"/>
+      <c r="M32" s="200"/>
+      <c r="N32" s="200"/>
+      <c r="O32" s="200"/>
+      <c r="P32" s="200"/>
+      <c r="Q32" s="200"/>
+      <c r="R32" s="200"/>
+      <c r="S32" s="200"/>
+      <c r="T32" s="200"/>
+      <c r="U32" s="201"/>
     </row>
     <row r="33" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="194" t="s">
+      <c r="A33" s="184" t="s">
         <v>181</v>
       </c>
       <c r="B33" s="186" t="s">
         <v>182</v>
       </c>
-      <c r="C33" s="182" t="s">
+      <c r="C33" s="188" t="s">
         <v>183</v>
       </c>
-      <c r="D33" s="184" t="s">
+      <c r="D33" s="182" t="s">
         <v>184</v>
       </c>
       <c r="E33" s="186" t="s">
         <v>143</v>
       </c>
-      <c r="F33" s="184" t="s">
+      <c r="F33" s="182" t="s">
         <v>185</v>
       </c>
       <c r="G33" s="186" t="s">
         <v>186</v>
       </c>
-      <c r="H33" s="182" t="s">
+      <c r="H33" s="188" t="s">
         <v>187</v>
       </c>
-      <c r="I33" s="184" t="s">
+      <c r="I33" s="182" t="s">
         <v>188</v>
       </c>
       <c r="J33" s="186" t="s">
         <v>143</v>
       </c>
-      <c r="K33" s="184" t="s">
+      <c r="K33" s="182" t="s">
         <v>185</v>
       </c>
       <c r="L33" s="186" t="s">
         <v>182</v>
       </c>
-      <c r="M33" s="182" t="s">
+      <c r="M33" s="188" t="s">
         <v>183</v>
       </c>
-      <c r="N33" s="184" t="s">
+      <c r="N33" s="182" t="s">
         <v>184</v>
       </c>
       <c r="O33" s="186" t="s">
         <v>143</v>
       </c>
-      <c r="P33" s="184" t="s">
+      <c r="P33" s="182" t="s">
         <v>185</v>
       </c>
       <c r="Q33" s="186" t="s">
         <v>186</v>
       </c>
-      <c r="R33" s="182" t="s">
+      <c r="R33" s="188" t="s">
         <v>187</v>
       </c>
-      <c r="S33" s="184" t="s">
+      <c r="S33" s="182" t="s">
         <v>188</v>
       </c>
-      <c r="T33" s="182" t="s">
+      <c r="T33" s="188" t="s">
         <v>143</v>
       </c>
-      <c r="U33" s="184" t="s">
+      <c r="U33" s="182" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="34" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="195"/>
+      <c r="A34" s="185"/>
       <c r="B34" s="187"/>
-      <c r="C34" s="183"/>
-      <c r="D34" s="185"/>
+      <c r="C34" s="189"/>
+      <c r="D34" s="183"/>
       <c r="E34" s="187"/>
-      <c r="F34" s="185"/>
+      <c r="F34" s="183"/>
       <c r="G34" s="187"/>
-      <c r="H34" s="183"/>
-      <c r="I34" s="185"/>
+      <c r="H34" s="189"/>
+      <c r="I34" s="183"/>
       <c r="J34" s="187"/>
-      <c r="K34" s="185"/>
+      <c r="K34" s="183"/>
       <c r="L34" s="187"/>
-      <c r="M34" s="183"/>
-      <c r="N34" s="185"/>
+      <c r="M34" s="189"/>
+      <c r="N34" s="183"/>
       <c r="O34" s="187"/>
-      <c r="P34" s="185"/>
+      <c r="P34" s="183"/>
       <c r="Q34" s="187"/>
-      <c r="R34" s="183"/>
-      <c r="S34" s="185"/>
-      <c r="T34" s="183"/>
-      <c r="U34" s="185"/>
+      <c r="R34" s="189"/>
+      <c r="S34" s="183"/>
+      <c r="T34" s="189"/>
+      <c r="U34" s="183"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="21">
@@ -18333,119 +18333,119 @@
       </c>
     </row>
     <row r="46" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="188" t="s">
+      <c r="A46" s="196" t="s">
         <v>180</v>
       </c>
-      <c r="B46" s="189"/>
-      <c r="C46" s="189"/>
-      <c r="D46" s="189"/>
-      <c r="E46" s="189"/>
-      <c r="F46" s="189"/>
-      <c r="G46" s="189"/>
-      <c r="H46" s="189"/>
-      <c r="I46" s="189"/>
-      <c r="J46" s="189"/>
-      <c r="K46" s="190"/>
-      <c r="L46" s="191" t="s">
+      <c r="B46" s="197"/>
+      <c r="C46" s="197"/>
+      <c r="D46" s="197"/>
+      <c r="E46" s="197"/>
+      <c r="F46" s="197"/>
+      <c r="G46" s="197"/>
+      <c r="H46" s="197"/>
+      <c r="I46" s="197"/>
+      <c r="J46" s="197"/>
+      <c r="K46" s="198"/>
+      <c r="L46" s="199" t="s">
         <v>162</v>
       </c>
-      <c r="M46" s="192"/>
-      <c r="N46" s="192"/>
-      <c r="O46" s="192"/>
-      <c r="P46" s="192"/>
-      <c r="Q46" s="192"/>
-      <c r="R46" s="192"/>
-      <c r="S46" s="192"/>
-      <c r="T46" s="192"/>
-      <c r="U46" s="193"/>
+      <c r="M46" s="200"/>
+      <c r="N46" s="200"/>
+      <c r="O46" s="200"/>
+      <c r="P46" s="200"/>
+      <c r="Q46" s="200"/>
+      <c r="R46" s="200"/>
+      <c r="S46" s="200"/>
+      <c r="T46" s="200"/>
+      <c r="U46" s="201"/>
     </row>
     <row r="47" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="194" t="s">
+      <c r="A47" s="184" t="s">
         <v>623</v>
       </c>
       <c r="B47" s="186" t="s">
         <v>182</v>
       </c>
-      <c r="C47" s="182" t="s">
+      <c r="C47" s="188" t="s">
         <v>183</v>
       </c>
-      <c r="D47" s="184" t="s">
+      <c r="D47" s="182" t="s">
         <v>184</v>
       </c>
       <c r="E47" s="186" t="s">
         <v>143</v>
       </c>
-      <c r="F47" s="184" t="s">
+      <c r="F47" s="182" t="s">
         <v>185</v>
       </c>
       <c r="G47" s="186" t="s">
         <v>186</v>
       </c>
-      <c r="H47" s="182" t="s">
+      <c r="H47" s="188" t="s">
         <v>187</v>
       </c>
-      <c r="I47" s="184" t="s">
+      <c r="I47" s="182" t="s">
         <v>188</v>
       </c>
       <c r="J47" s="186" t="s">
         <v>143</v>
       </c>
-      <c r="K47" s="184" t="s">
+      <c r="K47" s="182" t="s">
         <v>185</v>
       </c>
       <c r="L47" s="186" t="s">
         <v>182</v>
       </c>
-      <c r="M47" s="182" t="s">
+      <c r="M47" s="188" t="s">
         <v>183</v>
       </c>
-      <c r="N47" s="184" t="s">
+      <c r="N47" s="182" t="s">
         <v>184</v>
       </c>
       <c r="O47" s="186" t="s">
         <v>143</v>
       </c>
-      <c r="P47" s="184" t="s">
+      <c r="P47" s="182" t="s">
         <v>185</v>
       </c>
       <c r="Q47" s="186" t="s">
         <v>186</v>
       </c>
-      <c r="R47" s="182" t="s">
+      <c r="R47" s="188" t="s">
         <v>187</v>
       </c>
-      <c r="S47" s="184" t="s">
+      <c r="S47" s="182" t="s">
         <v>188</v>
       </c>
-      <c r="T47" s="182" t="s">
+      <c r="T47" s="188" t="s">
         <v>143</v>
       </c>
-      <c r="U47" s="184" t="s">
+      <c r="U47" s="182" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="48" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="195"/>
+      <c r="A48" s="185"/>
       <c r="B48" s="187"/>
-      <c r="C48" s="183"/>
-      <c r="D48" s="185"/>
+      <c r="C48" s="189"/>
+      <c r="D48" s="183"/>
       <c r="E48" s="187"/>
-      <c r="F48" s="185"/>
+      <c r="F48" s="183"/>
       <c r="G48" s="187"/>
-      <c r="H48" s="183"/>
-      <c r="I48" s="185"/>
+      <c r="H48" s="189"/>
+      <c r="I48" s="183"/>
       <c r="J48" s="187"/>
-      <c r="K48" s="185"/>
+      <c r="K48" s="183"/>
       <c r="L48" s="187"/>
-      <c r="M48" s="183"/>
-      <c r="N48" s="185"/>
+      <c r="M48" s="189"/>
+      <c r="N48" s="183"/>
       <c r="O48" s="187"/>
-      <c r="P48" s="185"/>
+      <c r="P48" s="183"/>
       <c r="Q48" s="187"/>
-      <c r="R48" s="183"/>
-      <c r="S48" s="185"/>
-      <c r="T48" s="183"/>
-      <c r="U48" s="185"/>
+      <c r="R48" s="189"/>
+      <c r="S48" s="183"/>
+      <c r="T48" s="189"/>
+      <c r="U48" s="183"/>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="26">
@@ -18969,20 +18969,68 @@
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="T47:T48"/>
+    <mergeCell ref="U47:U48"/>
+    <mergeCell ref="N47:N48"/>
+    <mergeCell ref="O47:O48"/>
+    <mergeCell ref="P47:P48"/>
+    <mergeCell ref="Q47:Q48"/>
+    <mergeCell ref="R47:R48"/>
+    <mergeCell ref="S47:S48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="U33:U34"/>
+    <mergeCell ref="A46:K46"/>
+    <mergeCell ref="L46:U46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="P33:P34"/>
+    <mergeCell ref="Q33:Q34"/>
+    <mergeCell ref="R33:R34"/>
+    <mergeCell ref="S33:S34"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="A32:K32"/>
+    <mergeCell ref="L32:U32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="T33:T34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="U19:U20"/>
+    <mergeCell ref="A18:K18"/>
+    <mergeCell ref="L18:U18"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
     <mergeCell ref="R5:R6"/>
     <mergeCell ref="S5:S6"/>
     <mergeCell ref="T5:T6"/>
@@ -18999,68 +19047,20 @@
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:J6"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="U19:U20"/>
-    <mergeCell ref="A18:K18"/>
-    <mergeCell ref="L18:U18"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="A32:K32"/>
-    <mergeCell ref="L32:U32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="T33:T34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="U33:U34"/>
-    <mergeCell ref="A46:K46"/>
-    <mergeCell ref="L46:U46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="O33:O34"/>
-    <mergeCell ref="P33:P34"/>
-    <mergeCell ref="Q33:Q34"/>
-    <mergeCell ref="R33:R34"/>
-    <mergeCell ref="S33:S34"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="N33:N34"/>
-    <mergeCell ref="M47:M48"/>
-    <mergeCell ref="T47:T48"/>
-    <mergeCell ref="U47:U48"/>
-    <mergeCell ref="N47:N48"/>
-    <mergeCell ref="O47:O48"/>
-    <mergeCell ref="P47:P48"/>
-    <mergeCell ref="Q47:Q48"/>
-    <mergeCell ref="R47:R48"/>
-    <mergeCell ref="S47:S48"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
